--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H2">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>18.36434745578548</v>
+        <v>21.44849958854067</v>
       </c>
       <c r="R2">
-        <v>18.36434745578548</v>
+        <v>193.036496296866</v>
       </c>
       <c r="S2">
-        <v>0.005625723446924221</v>
+        <v>0.00642145902574204</v>
       </c>
       <c r="T2">
-        <v>0.005625723446924221</v>
+        <v>0.006421459025742039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H3">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>22.86425056412356</v>
+        <v>26.67313821791112</v>
       </c>
       <c r="R3">
-        <v>22.86425056412356</v>
+        <v>240.0582439612</v>
       </c>
       <c r="S3">
-        <v>0.007004221130352085</v>
+        <v>0.007985661815047456</v>
       </c>
       <c r="T3">
-        <v>0.007004221130352085</v>
+        <v>0.007985661815047455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H4">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>16.75301055531812</v>
+        <v>19.98524141464322</v>
       </c>
       <c r="R4">
-        <v>16.75301055531812</v>
+        <v>179.867172731789</v>
       </c>
       <c r="S4">
-        <v>0.005132107444304011</v>
+        <v>0.005983374656764328</v>
       </c>
       <c r="T4">
-        <v>0.005132107444304011</v>
+        <v>0.005983374656764326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H5">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>14.24126096243511</v>
+        <v>17.19083461562156</v>
       </c>
       <c r="R5">
-        <v>14.24126096243511</v>
+        <v>154.717511540594</v>
       </c>
       <c r="S5">
-        <v>0.004362659544698262</v>
+        <v>0.005146758151861595</v>
       </c>
       <c r="T5">
-        <v>0.004362659544698262</v>
+        <v>0.005146758151861593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H6">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I6">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J6">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>2.643900448128977</v>
+        <v>3.236316466249334</v>
       </c>
       <c r="R6">
-        <v>2.643900448128977</v>
+        <v>29.126848196244</v>
       </c>
       <c r="S6">
-        <v>0.0008099309152249132</v>
+        <v>0.0009689196904690499</v>
       </c>
       <c r="T6">
-        <v>0.0008099309152249132</v>
+        <v>0.0009689196904690497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H7">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>753.6297020745927</v>
+        <v>756.6021796282492</v>
       </c>
       <c r="R7">
-        <v>753.6297020745927</v>
+        <v>6809.419616654243</v>
       </c>
       <c r="S7">
-        <v>0.2308664816687443</v>
+        <v>0.2265188702460883</v>
       </c>
       <c r="T7">
-        <v>0.2308664816687443</v>
+        <v>0.2265188702460882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H8">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>938.2951603527183</v>
+        <v>940.9028556934222</v>
       </c>
       <c r="R8">
-        <v>938.2951603527183</v>
+        <v>8468.1257012408</v>
       </c>
       <c r="S8">
-        <v>0.287436790032463</v>
+        <v>0.2816965872180188</v>
       </c>
       <c r="T8">
-        <v>0.287436790032463</v>
+        <v>0.2816965872180187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H9">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>687.5042189249888</v>
+        <v>704.9853138815585</v>
       </c>
       <c r="R9">
-        <v>687.5042189249888</v>
+        <v>6344.867824934026</v>
       </c>
       <c r="S9">
-        <v>0.2106096398784457</v>
+        <v>0.2110653142963429</v>
       </c>
       <c r="T9">
-        <v>0.2106096398784457</v>
+        <v>0.2110653142963429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H10">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J10">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>584.4279129507158</v>
+        <v>606.4117858741552</v>
       </c>
       <c r="R10">
-        <v>584.4279129507158</v>
+        <v>5457.706072867396</v>
       </c>
       <c r="S10">
-        <v>0.1790333046594604</v>
+        <v>0.1815534191397902</v>
       </c>
       <c r="T10">
-        <v>0.1790333046594604</v>
+        <v>0.1815534191397902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H11">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J11">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>108.4994667975856</v>
+        <v>114.1620224866107</v>
       </c>
       <c r="R11">
-        <v>108.4994667975856</v>
+        <v>1027.458202379496</v>
       </c>
       <c r="S11">
-        <v>0.03323766313023322</v>
+        <v>0.03417892923779523</v>
       </c>
       <c r="T11">
-        <v>0.03323766313023322</v>
+        <v>0.03417892923779523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H12">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>28.73120575084549</v>
+        <v>0.6069651351013333</v>
       </c>
       <c r="R12">
-        <v>28.73120575084549</v>
+        <v>5.462686215912</v>
       </c>
       <c r="S12">
-        <v>0.008801500747036591</v>
+        <v>0.000181719086177458</v>
       </c>
       <c r="T12">
-        <v>0.008801500747036591</v>
+        <v>0.000181719086177458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H13">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I13">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J13">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>35.77134928852396</v>
+        <v>0.7548157331555557</v>
       </c>
       <c r="R13">
-        <v>35.77134928852396</v>
+        <v>6.793341598400001</v>
       </c>
       <c r="S13">
-        <v>0.01095817419622862</v>
+        <v>0.0002259840266418199</v>
       </c>
       <c r="T13">
-        <v>0.01095817419622862</v>
+        <v>0.0002259840266418199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H14">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I14">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J14">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>26.21025301170133</v>
+        <v>0.5655567982831111</v>
       </c>
       <c r="R14">
-        <v>26.21025301170133</v>
+        <v>5.090011184548001</v>
       </c>
       <c r="S14">
-        <v>0.008029233560993823</v>
+        <v>0.0001693218582452812</v>
       </c>
       <c r="T14">
-        <v>0.008029233560993823</v>
+        <v>0.0001693218582452811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H15">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I15">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J15">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>22.28059558600341</v>
+        <v>0.4864786560897779</v>
       </c>
       <c r="R15">
-        <v>22.28059558600341</v>
+        <v>4.378307904808</v>
       </c>
       <c r="S15">
-        <v>0.00682542460609605</v>
+        <v>0.0001456466800431847</v>
       </c>
       <c r="T15">
-        <v>0.00682542460609605</v>
+        <v>0.0001456466800431847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.042436</v>
+      </c>
+      <c r="I16">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J16">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.474476</v>
+      </c>
+      <c r="N16">
+        <v>19.423428</v>
+      </c>
+      <c r="O16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q16">
+        <v>0.09158362117866667</v>
+      </c>
+      <c r="R16">
+        <v>0.824252590608</v>
+      </c>
+      <c r="S16">
+        <v>2.741918931905589E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.741918931905589E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.13459</v>
+      </c>
+      <c r="I17">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J17">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>42.909214</v>
+      </c>
+      <c r="N17">
+        <v>128.727642</v>
+      </c>
+      <c r="O17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q17">
+        <v>30.53119303741999</v>
+      </c>
+      <c r="R17">
+        <v>274.78073733678</v>
+      </c>
+      <c r="S17">
+        <v>0.009140723540473654</v>
+      </c>
+      <c r="T17">
+        <v>0.009140723540473652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.13459</v>
+      </c>
+      <c r="I18">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J18">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N18">
+        <v>160.0844</v>
+      </c>
+      <c r="O18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q18">
+        <v>37.96828437733333</v>
+      </c>
+      <c r="R18">
+        <v>341.714559396</v>
+      </c>
+      <c r="S18">
+        <v>0.01136731179727972</v>
+      </c>
+      <c r="T18">
+        <v>0.01136731179727972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="H16">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="I16">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="J16">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N16">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O16">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P16">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q16">
-        <v>4.136408763928887</v>
-      </c>
-      <c r="R16">
-        <v>4.136408763928887</v>
-      </c>
-      <c r="S16">
-        <v>0.001267145038794532</v>
-      </c>
-      <c r="T16">
-        <v>0.001267145038794532</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.13459</v>
+      </c>
+      <c r="I19">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J19">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N19">
+        <v>119.945593</v>
+      </c>
+      <c r="O19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q19">
+        <v>28.44829592909666</v>
+      </c>
+      <c r="R19">
+        <v>256.03466336187</v>
+      </c>
+      <c r="S19">
+        <v>0.008517125680832186</v>
+      </c>
+      <c r="T19">
+        <v>0.008517125680832184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.13459</v>
+      </c>
+      <c r="I20">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J20">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N20">
+        <v>103.174378</v>
+      </c>
+      <c r="O20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q20">
+        <v>24.47055505944666</v>
+      </c>
+      <c r="R20">
+        <v>220.23499553502</v>
+      </c>
+      <c r="S20">
+        <v>0.007326231189400076</v>
+      </c>
+      <c r="T20">
+        <v>0.007326231189400074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.13459</v>
+      </c>
+      <c r="I21">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J21">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.474476</v>
+      </c>
+      <c r="N21">
+        <v>19.423428</v>
+      </c>
+      <c r="O21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q21">
+        <v>4.60678390828</v>
+      </c>
+      <c r="R21">
+        <v>41.46105517452</v>
+      </c>
+      <c r="S21">
+        <v>0.001379223473667723</v>
+      </c>
+      <c r="T21">
+        <v>0.001379223473667723</v>
       </c>
     </row>
   </sheetData>
